--- a/AAII_Financials/Yearly/EM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EM_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>438300</v>
+        <v>432600</v>
       </c>
       <c r="E8" s="3">
-        <v>315500</v>
+        <v>311400</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>67200</v>
+        <v>66300</v>
       </c>
       <c r="E9" s="3">
-        <v>45600</v>
+        <v>45000</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>371100</v>
+        <v>366300</v>
       </c>
       <c r="E10" s="3">
-        <v>269900</v>
+        <v>266400</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="E12" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>417700</v>
+        <v>412300</v>
       </c>
       <c r="E17" s="3">
-        <v>279300</v>
+        <v>275700</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="E18" s="3">
-        <v>36200</v>
+        <v>35700</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>74500</v>
+        <v>73700</v>
       </c>
       <c r="E21" s="3">
-        <v>67600</v>
+        <v>66800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="E23" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="E26" s="3">
-        <v>26000</v>
+        <v>25700</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-488500</v>
+        <v>-482100</v>
       </c>
       <c r="E27" s="3">
-        <v>-41300</v>
+        <v>-40700</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-488500</v>
+        <v>-482100</v>
       </c>
       <c r="E33" s="3">
-        <v>-41300</v>
+        <v>-40700</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-488500</v>
+        <v>-482100</v>
       </c>
       <c r="E35" s="3">
-        <v>-41300</v>
+        <v>-40700</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>195400</v>
+        <v>192900</v>
       </c>
       <c r="E41" s="3">
-        <v>42700</v>
+        <v>42100</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="E42" s="3">
-        <v>50000</v>
+        <v>49300</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="E43" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37700</v>
+        <v>37300</v>
       </c>
       <c r="E45" s="3">
-        <v>39800</v>
+        <v>39300</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>272400</v>
+        <v>268800</v>
       </c>
       <c r="E46" s="3">
-        <v>140200</v>
+        <v>138400</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>150300</v>
+        <v>148400</v>
       </c>
       <c r="E48" s="3">
-        <v>153100</v>
+        <v>151100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="E52" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>434600</v>
+        <v>428900</v>
       </c>
       <c r="E54" s="3">
-        <v>316000</v>
+        <v>311900</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>63200</v>
+        <v>62400</v>
       </c>
       <c r="E57" s="3">
-        <v>47400</v>
+        <v>46700</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="E58" s="3">
-        <v>66200</v>
+        <v>65400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46900</v>
+        <v>46300</v>
       </c>
       <c r="E59" s="3">
-        <v>51200</v>
+        <v>50500</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>133400</v>
+        <v>131600</v>
       </c>
       <c r="E60" s="3">
-        <v>164800</v>
+        <v>162600</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="E61" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E62" s="3">
         <v>2500</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>169600</v>
+        <v>167400</v>
       </c>
       <c r="E66" s="3">
-        <v>183400</v>
+        <v>181000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>801600</v>
+        <v>791100</v>
       </c>
       <c r="E70" s="3">
-        <v>225500</v>
+        <v>222600</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-568100</v>
+        <v>-560700</v>
       </c>
       <c r="E72" s="3">
-        <v>-84200</v>
+        <v>-83200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-536600</v>
+        <v>-529500</v>
       </c>
       <c r="E76" s="3">
-        <v>-92900</v>
+        <v>-91700</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-488500</v>
+        <v>-482100</v>
       </c>
       <c r="E81" s="3">
-        <v>-41300</v>
+        <v>-40700</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53600</v>
+        <v>52900</v>
       </c>
       <c r="E83" s="3">
-        <v>30300</v>
+        <v>29900</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>83600</v>
+        <v>82600</v>
       </c>
       <c r="E89" s="3">
-        <v>69300</v>
+        <v>68400</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65000</v>
+        <v>-64200</v>
       </c>
       <c r="E91" s="3">
-        <v>-90500</v>
+        <v>-89300</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-40800</v>
+        <v>-40300</v>
       </c>
       <c r="E94" s="3">
-        <v>-135500</v>
+        <v>-133700</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>102100</v>
+        <v>100800</v>
       </c>
       <c r="E100" s="3">
-        <v>90400</v>
+        <v>89300</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>144000</v>
+        <v>142100</v>
       </c>
       <c r="E102" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/EM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EM_YR_FIN.xlsx
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>432600</v>
+        <v>439800</v>
       </c>
       <c r="E8" s="3">
-        <v>311400</v>
+        <v>316600</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>66300</v>
+        <v>67400</v>
       </c>
       <c r="E9" s="3">
-        <v>45000</v>
+        <v>45800</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>366300</v>
+        <v>372400</v>
       </c>
       <c r="E10" s="3">
-        <v>266400</v>
+        <v>270800</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="E12" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>412300</v>
+        <v>419200</v>
       </c>
       <c r="E17" s="3">
-        <v>275700</v>
+        <v>280300</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="E18" s="3">
-        <v>35700</v>
+        <v>36300</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>73700</v>
+        <v>74800</v>
       </c>
       <c r="E21" s="3">
-        <v>66800</v>
+        <v>67900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E22" s="3">
         <v>4200</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14500</v>
+        <v>14700</v>
       </c>
       <c r="E23" s="3">
-        <v>32700</v>
+        <v>33300</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1102,7 +1102,7 @@
         <v>2900</v>
       </c>
       <c r="E24" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="E26" s="3">
-        <v>25700</v>
+        <v>26100</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-482100</v>
+        <v>-490200</v>
       </c>
       <c r="E27" s="3">
-        <v>-40700</v>
+        <v>-41400</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-482100</v>
+        <v>-490200</v>
       </c>
       <c r="E33" s="3">
-        <v>-40700</v>
+        <v>-41400</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-482100</v>
+        <v>-490200</v>
       </c>
       <c r="E35" s="3">
-        <v>-40700</v>
+        <v>-41400</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>192900</v>
+        <v>196100</v>
       </c>
       <c r="E41" s="3">
-        <v>42100</v>
+        <v>42800</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26300</v>
+        <v>26700</v>
       </c>
       <c r="E42" s="3">
-        <v>49300</v>
+        <v>50200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="E43" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37300</v>
+        <v>37900</v>
       </c>
       <c r="E45" s="3">
-        <v>39300</v>
+        <v>40000</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>268800</v>
+        <v>273300</v>
       </c>
       <c r="E46" s="3">
-        <v>138400</v>
+        <v>140700</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>148400</v>
+        <v>150800</v>
       </c>
       <c r="E48" s="3">
-        <v>151100</v>
+        <v>153600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="E52" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>428900</v>
+        <v>436100</v>
       </c>
       <c r="E54" s="3">
-        <v>311900</v>
+        <v>317100</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>62400</v>
+        <v>63400</v>
       </c>
       <c r="E57" s="3">
-        <v>46700</v>
+        <v>47500</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23000</v>
+        <v>23400</v>
       </c>
       <c r="E58" s="3">
-        <v>65400</v>
+        <v>66400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46300</v>
+        <v>47000</v>
       </c>
       <c r="E59" s="3">
-        <v>50500</v>
+        <v>51400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>131600</v>
+        <v>133800</v>
       </c>
       <c r="E60" s="3">
-        <v>162600</v>
+        <v>165400</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="E61" s="3">
-        <v>15900</v>
+        <v>16100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E62" s="3">
         <v>2500</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>167400</v>
+        <v>170200</v>
       </c>
       <c r="E66" s="3">
-        <v>181000</v>
+        <v>184000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>791100</v>
+        <v>804400</v>
       </c>
       <c r="E70" s="3">
-        <v>222600</v>
+        <v>226300</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-560700</v>
+        <v>-570100</v>
       </c>
       <c r="E72" s="3">
-        <v>-83200</v>
+        <v>-84500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-529500</v>
+        <v>-538500</v>
       </c>
       <c r="E76" s="3">
-        <v>-91700</v>
+        <v>-93200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-482100</v>
+        <v>-490200</v>
       </c>
       <c r="E81" s="3">
-        <v>-40700</v>
+        <v>-41400</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>52900</v>
+        <v>53800</v>
       </c>
       <c r="E83" s="3">
-        <v>29900</v>
+        <v>30400</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>82600</v>
+        <v>83900</v>
       </c>
       <c r="E89" s="3">
-        <v>68400</v>
+        <v>69500</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-64200</v>
+        <v>-65300</v>
       </c>
       <c r="E91" s="3">
-        <v>-89300</v>
+        <v>-90800</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-40300</v>
+        <v>-40900</v>
       </c>
       <c r="E94" s="3">
-        <v>-133700</v>
+        <v>-135900</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100800</v>
+        <v>102500</v>
       </c>
       <c r="E100" s="3">
-        <v>89300</v>
+        <v>90800</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>142100</v>
+        <v>144500</v>
       </c>
       <c r="E102" s="3">
-        <v>23300</v>
+        <v>23600</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/EM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EM_YR_FIN.xlsx
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>439800</v>
+        <v>443200</v>
       </c>
       <c r="E8" s="3">
-        <v>316600</v>
+        <v>319000</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>67400</v>
+        <v>68000</v>
       </c>
       <c r="E9" s="3">
-        <v>45800</v>
+        <v>46100</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>372400</v>
+        <v>375200</v>
       </c>
       <c r="E10" s="3">
-        <v>270800</v>
+        <v>272900</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -806,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="E12" s="3">
         <v>10300</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>419200</v>
+        <v>422400</v>
       </c>
       <c r="E17" s="3">
-        <v>280300</v>
+        <v>282400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20600</v>
+        <v>20800</v>
       </c>
       <c r="E18" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -994,7 +994,7 @@
         <v>400</v>
       </c>
       <c r="E20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>74800</v>
+        <v>75600</v>
       </c>
       <c r="E21" s="3">
-        <v>67900</v>
+        <v>68500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1048,7 +1048,7 @@
         <v>6400</v>
       </c>
       <c r="E22" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="E23" s="3">
-        <v>33300</v>
+        <v>33500</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="E26" s="3">
-        <v>26100</v>
+        <v>26300</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-490200</v>
+        <v>-493900</v>
       </c>
       <c r="E27" s="3">
-        <v>-41400</v>
+        <v>-41700</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1318,7 +1318,7 @@
         <v>-400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-490200</v>
+        <v>-493900</v>
       </c>
       <c r="E33" s="3">
-        <v>-41400</v>
+        <v>-41700</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-490200</v>
+        <v>-493900</v>
       </c>
       <c r="E35" s="3">
-        <v>-41400</v>
+        <v>-41700</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>196100</v>
+        <v>197600</v>
       </c>
       <c r="E41" s="3">
-        <v>42800</v>
+        <v>43200</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="E42" s="3">
-        <v>50200</v>
+        <v>50600</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="E43" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37900</v>
+        <v>38200</v>
       </c>
       <c r="E45" s="3">
-        <v>40000</v>
+        <v>40300</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>273300</v>
+        <v>275400</v>
       </c>
       <c r="E46" s="3">
-        <v>140700</v>
+        <v>141800</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>150800</v>
+        <v>152000</v>
       </c>
       <c r="E48" s="3">
-        <v>153600</v>
+        <v>154800</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1781,7 +1781,7 @@
         <v>12000</v>
       </c>
       <c r="E52" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>436100</v>
+        <v>439500</v>
       </c>
       <c r="E54" s="3">
-        <v>317100</v>
+        <v>319500</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>63400</v>
+        <v>63900</v>
       </c>
       <c r="E57" s="3">
-        <v>47500</v>
+        <v>47900</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="E58" s="3">
-        <v>66400</v>
+        <v>67000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47000</v>
+        <v>47400</v>
       </c>
       <c r="E59" s="3">
-        <v>51400</v>
+        <v>51800</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>133800</v>
+        <v>134900</v>
       </c>
       <c r="E60" s="3">
-        <v>165400</v>
+        <v>166600</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31000</v>
+        <v>31300</v>
       </c>
       <c r="E61" s="3">
-        <v>16100</v>
+        <v>16300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>5300</v>
       </c>
       <c r="E62" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>170200</v>
+        <v>171500</v>
       </c>
       <c r="E66" s="3">
-        <v>184000</v>
+        <v>185400</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>804400</v>
+        <v>810600</v>
       </c>
       <c r="E70" s="3">
-        <v>226300</v>
+        <v>228000</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-570100</v>
+        <v>-574400</v>
       </c>
       <c r="E72" s="3">
-        <v>-84500</v>
+        <v>-85200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-538500</v>
+        <v>-542600</v>
       </c>
       <c r="E76" s="3">
-        <v>-93200</v>
+        <v>-93900</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-490200</v>
+        <v>-493900</v>
       </c>
       <c r="E81" s="3">
-        <v>-41400</v>
+        <v>-41700</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53800</v>
+        <v>54200</v>
       </c>
       <c r="E83" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>83900</v>
+        <v>84600</v>
       </c>
       <c r="E89" s="3">
-        <v>69500</v>
+        <v>70100</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65300</v>
+        <v>-65800</v>
       </c>
       <c r="E91" s="3">
-        <v>-90800</v>
+        <v>-91500</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-40900</v>
+        <v>-41300</v>
       </c>
       <c r="E94" s="3">
-        <v>-135900</v>
+        <v>-137000</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>102500</v>
+        <v>103300</v>
       </c>
       <c r="E100" s="3">
-        <v>90800</v>
+        <v>91400</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>144500</v>
+        <v>145600</v>
       </c>
       <c r="E102" s="3">
-        <v>23600</v>
+        <v>23800</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/EM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>EM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,20 +705,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>443200</v>
+        <v>528300</v>
       </c>
       <c r="E8" s="3">
-        <v>319000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>414000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>298000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,20 +735,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>68000</v>
+        <v>82100</v>
       </c>
       <c r="E9" s="3">
-        <v>46100</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>63500</v>
+      </c>
+      <c r="F9" s="3">
+        <v>43100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -759,20 +765,23 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>375200</v>
+        <v>446200</v>
       </c>
       <c r="E10" s="3">
-        <v>272900</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>350500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>254900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,19 +812,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11200</v>
+        <v>13800</v>
       </c>
       <c r="E12" s="3">
-        <v>10300</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>10500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9600</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,9 +899,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>422400</v>
+        <v>544400</v>
       </c>
       <c r="E17" s="3">
-        <v>282400</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>394600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>263800</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +970,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20800</v>
+        <v>-16100</v>
       </c>
       <c r="E18" s="3">
-        <v>36600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>19400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>34200</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,19 +1017,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>1100</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1011,20 +1044,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>75600</v>
+        <v>46300</v>
       </c>
       <c r="E21" s="3">
-        <v>68500</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>70900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>64200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,20 +1074,23 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6400</v>
+        <v>5600</v>
       </c>
       <c r="E22" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>6000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1065,20 +1104,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14800</v>
+        <v>-18400</v>
       </c>
       <c r="E23" s="3">
-        <v>33500</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>13900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>31300</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,20 +1134,23 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6800</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11900</v>
+        <v>-18400</v>
       </c>
       <c r="E26" s="3">
-        <v>26300</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>11100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>24600</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-493900</v>
+        <v>-730700</v>
       </c>
       <c r="E27" s="3">
-        <v>-41700</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-461400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-39000</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,20 +1374,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>-1100</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-493900</v>
+        <v>-730700</v>
       </c>
       <c r="E33" s="3">
-        <v>-41700</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-461400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-39000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-493900</v>
+        <v>-730700</v>
       </c>
       <c r="E35" s="3">
-        <v>-41700</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-461400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-39000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>197600</v>
+        <v>191100</v>
       </c>
       <c r="E41" s="3">
-        <v>43200</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>184600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>40300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,20 +1587,23 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26900</v>
+        <v>209100</v>
       </c>
       <c r="E42" s="3">
-        <v>50600</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>25100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>47200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12800</v>
+        <v>14400</v>
       </c>
       <c r="E43" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>11900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>7300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,47 +1647,53 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38200</v>
+        <v>63300</v>
       </c>
       <c r="E45" s="3">
-        <v>40300</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>35600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>37600</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>275400</v>
+        <v>478600</v>
       </c>
       <c r="E46" s="3">
-        <v>141800</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>257300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>132400</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>152000</v>
+        <v>139300</v>
       </c>
       <c r="E48" s="3">
-        <v>154800</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>142000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>144600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,9 +1797,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,20 +1887,23 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12000</v>
+        <v>30200</v>
       </c>
       <c r="E52" s="3">
-        <v>23000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>11300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>21400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>439500</v>
+        <v>648100</v>
       </c>
       <c r="E54" s="3">
-        <v>319500</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>410500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>298500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2008,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>63900</v>
+        <v>80600</v>
       </c>
       <c r="E57" s="3">
-        <v>47900</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>59700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>44700</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23600</v>
+        <v>15800</v>
       </c>
       <c r="E58" s="3">
-        <v>67000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>22000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>62500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47400</v>
+        <v>55100</v>
       </c>
       <c r="E59" s="3">
-        <v>51800</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>44300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>48400</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>134900</v>
+        <v>151500</v>
       </c>
       <c r="E60" s="3">
-        <v>166600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>126000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>155700</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,20 +2125,23 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31300</v>
+        <v>12800</v>
       </c>
       <c r="E61" s="3">
-        <v>16300</v>
+        <v>29200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>15200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2013,20 +2155,23 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5300</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>171500</v>
+        <v>171800</v>
       </c>
       <c r="E66" s="3">
-        <v>185400</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>160200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>173200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,20 +2379,23 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>810600</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>228000</v>
+        <v>757100</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>213000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-574400</v>
+        <v>-1266000</v>
       </c>
       <c r="E72" s="3">
-        <v>-85200</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-536600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-79600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-542600</v>
+        <v>476300</v>
       </c>
       <c r="E76" s="3">
-        <v>-93900</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-506800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-87700</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-493900</v>
+        <v>-730700</v>
       </c>
       <c r="E81" s="3">
-        <v>-41700</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-461400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-39000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,19 +2701,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>54200</v>
+        <v>58500</v>
       </c>
       <c r="E83" s="3">
-        <v>30600</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>50600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>28600</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>84600</v>
+        <v>33400</v>
       </c>
       <c r="E89" s="3">
-        <v>70100</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>79000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>65400</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,19 +2925,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65800</v>
+        <v>-69600</v>
       </c>
       <c r="E91" s="3">
-        <v>-91500</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-61400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-85500</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3012,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-41300</v>
+        <v>-252600</v>
       </c>
       <c r="E94" s="3">
-        <v>-137000</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-38500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-128000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,20 +3176,23 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>103300</v>
+        <v>230400</v>
       </c>
       <c r="E100" s="3">
-        <v>91400</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>96500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>85400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2961,20 +3206,23 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1000</v>
+        <v>-6300</v>
       </c>
       <c r="E101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+        <v>-900</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-600</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2988,20 +3236,23 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>145600</v>
+        <v>4900</v>
       </c>
       <c r="E102" s="3">
-        <v>23800</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>136000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>22300</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EM_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>528300</v>
+        <v>523600</v>
       </c>
       <c r="E8" s="3">
-        <v>414000</v>
+        <v>410300</v>
       </c>
       <c r="F8" s="3">
-        <v>298000</v>
+        <v>295300</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>82100</v>
+        <v>81400</v>
       </c>
       <c r="E9" s="3">
-        <v>63500</v>
+        <v>62900</v>
       </c>
       <c r="F9" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>446200</v>
+        <v>442200</v>
       </c>
       <c r="E10" s="3">
-        <v>350500</v>
+        <v>347300</v>
       </c>
       <c r="F10" s="3">
-        <v>254900</v>
+        <v>252600</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,10 +819,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="E12" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="F12" s="3">
         <v>9600</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>544400</v>
+        <v>539500</v>
       </c>
       <c r="E17" s="3">
-        <v>394600</v>
+        <v>391000</v>
       </c>
       <c r="F17" s="3">
-        <v>263800</v>
+        <v>261400</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-16100</v>
+        <v>-15900</v>
       </c>
       <c r="E18" s="3">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="F18" s="3">
-        <v>34200</v>
+        <v>33900</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>46300</v>
+        <v>45200</v>
       </c>
       <c r="E21" s="3">
-        <v>70900</v>
+        <v>69700</v>
       </c>
       <c r="F21" s="3">
-        <v>64200</v>
+        <v>63300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1087,10 +1087,10 @@
         <v>5600</v>
       </c>
       <c r="E22" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="F22" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18400</v>
+        <v>-18200</v>
       </c>
       <c r="E23" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="F23" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>2700</v>
       </c>
       <c r="F24" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18400</v>
+        <v>-18200</v>
       </c>
       <c r="E26" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="F26" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-730700</v>
+        <v>-724100</v>
       </c>
       <c r="E27" s="3">
-        <v>-461400</v>
+        <v>-457200</v>
       </c>
       <c r="F27" s="3">
-        <v>-39000</v>
+        <v>-38600</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-730700</v>
+        <v>-724100</v>
       </c>
       <c r="E33" s="3">
-        <v>-461400</v>
+        <v>-457200</v>
       </c>
       <c r="F33" s="3">
-        <v>-39000</v>
+        <v>-38600</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-730700</v>
+        <v>-724100</v>
       </c>
       <c r="E35" s="3">
-        <v>-461400</v>
+        <v>-457200</v>
       </c>
       <c r="F35" s="3">
-        <v>-39000</v>
+        <v>-38600</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>191100</v>
+        <v>189400</v>
       </c>
       <c r="E41" s="3">
-        <v>184600</v>
+        <v>182900</v>
       </c>
       <c r="F41" s="3">
-        <v>40300</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>209100</v>
+        <v>207200</v>
       </c>
       <c r="E42" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="F42" s="3">
-        <v>47200</v>
+        <v>46800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="E43" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="F43" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>63300</v>
+        <v>62700</v>
       </c>
       <c r="E45" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="F45" s="3">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>478600</v>
+        <v>474300</v>
       </c>
       <c r="E46" s="3">
-        <v>257300</v>
+        <v>254900</v>
       </c>
       <c r="F46" s="3">
-        <v>132400</v>
+        <v>131300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>139300</v>
+        <v>138000</v>
       </c>
       <c r="E48" s="3">
-        <v>142000</v>
+        <v>140700</v>
       </c>
       <c r="F48" s="3">
-        <v>144600</v>
+        <v>143300</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="E52" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="F52" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>648100</v>
+        <v>642200</v>
       </c>
       <c r="E54" s="3">
-        <v>410500</v>
+        <v>406800</v>
       </c>
       <c r="F54" s="3">
-        <v>298500</v>
+        <v>295800</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>80600</v>
+        <v>79900</v>
       </c>
       <c r="E57" s="3">
-        <v>59700</v>
+        <v>59200</v>
       </c>
       <c r="F57" s="3">
-        <v>44700</v>
+        <v>44300</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="E58" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="F58" s="3">
-        <v>62500</v>
+        <v>62000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>55100</v>
+        <v>54600</v>
       </c>
       <c r="E59" s="3">
-        <v>44300</v>
+        <v>43900</v>
       </c>
       <c r="F59" s="3">
-        <v>48400</v>
+        <v>47900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>151500</v>
+        <v>150200</v>
       </c>
       <c r="E60" s="3">
-        <v>126000</v>
+        <v>124800</v>
       </c>
       <c r="F60" s="3">
-        <v>155700</v>
+        <v>154200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="E61" s="3">
-        <v>29200</v>
+        <v>29000</v>
       </c>
       <c r="F61" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E62" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F62" s="3">
         <v>2400</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>171800</v>
+        <v>170300</v>
       </c>
       <c r="E66" s="3">
-        <v>160200</v>
+        <v>158700</v>
       </c>
       <c r="F66" s="3">
-        <v>173200</v>
+        <v>171700</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>757100</v>
+        <v>750300</v>
       </c>
       <c r="F70" s="3">
-        <v>213000</v>
+        <v>211100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1266000</v>
+        <v>-1254600</v>
       </c>
       <c r="E72" s="3">
-        <v>-536600</v>
+        <v>-531700</v>
       </c>
       <c r="F72" s="3">
-        <v>-79600</v>
+        <v>-78900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>476300</v>
+        <v>472000</v>
       </c>
       <c r="E76" s="3">
-        <v>-506800</v>
+        <v>-502300</v>
       </c>
       <c r="F76" s="3">
-        <v>-87700</v>
+        <v>-87000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-730700</v>
+        <v>-724100</v>
       </c>
       <c r="E81" s="3">
-        <v>-461400</v>
+        <v>-457200</v>
       </c>
       <c r="F81" s="3">
-        <v>-39000</v>
+        <v>-38600</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>58500</v>
+        <v>58000</v>
       </c>
       <c r="E83" s="3">
-        <v>50600</v>
+        <v>50100</v>
       </c>
       <c r="F83" s="3">
-        <v>28600</v>
+        <v>28400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>33400</v>
+        <v>33100</v>
       </c>
       <c r="E89" s="3">
-        <v>79000</v>
+        <v>78300</v>
       </c>
       <c r="F89" s="3">
-        <v>65400</v>
+        <v>64800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-69600</v>
+        <v>-69000</v>
       </c>
       <c r="E91" s="3">
-        <v>-61400</v>
+        <v>-60900</v>
       </c>
       <c r="F91" s="3">
-        <v>-85500</v>
+        <v>-84700</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-252600</v>
+        <v>-250300</v>
       </c>
       <c r="E94" s="3">
-        <v>-38500</v>
+        <v>-38200</v>
       </c>
       <c r="F94" s="3">
-        <v>-128000</v>
+        <v>-126800</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>230400</v>
+        <v>228300</v>
       </c>
       <c r="E100" s="3">
-        <v>96500</v>
+        <v>95600</v>
       </c>
       <c r="F100" s="3">
-        <v>85400</v>
+        <v>84600</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="E101" s="3">
         <v>-900</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E102" s="3">
-        <v>136000</v>
+        <v>134800</v>
       </c>
       <c r="F102" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/EM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EM_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>523600</v>
+        <v>499100</v>
       </c>
       <c r="E8" s="3">
-        <v>410300</v>
+        <v>391100</v>
       </c>
       <c r="F8" s="3">
-        <v>295300</v>
+        <v>281500</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>81400</v>
+        <v>77600</v>
       </c>
       <c r="E9" s="3">
-        <v>62900</v>
+        <v>60000</v>
       </c>
       <c r="F9" s="3">
-        <v>42700</v>
+        <v>40700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>442200</v>
+        <v>421500</v>
       </c>
       <c r="E10" s="3">
-        <v>347300</v>
+        <v>331100</v>
       </c>
       <c r="F10" s="3">
-        <v>252600</v>
+        <v>240800</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="E12" s="3">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="F12" s="3">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>539500</v>
+        <v>514300</v>
       </c>
       <c r="E17" s="3">
-        <v>391000</v>
+        <v>372700</v>
       </c>
       <c r="F17" s="3">
-        <v>261400</v>
+        <v>249200</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15900</v>
+        <v>-15200</v>
       </c>
       <c r="E18" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="F18" s="3">
-        <v>33900</v>
+        <v>32300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
       </c>
       <c r="F20" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45200</v>
+        <v>42800</v>
       </c>
       <c r="E21" s="3">
-        <v>69700</v>
+        <v>66200</v>
       </c>
       <c r="F21" s="3">
-        <v>63300</v>
+        <v>60100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="E22" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="F22" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18200</v>
+        <v>-17300</v>
       </c>
       <c r="E23" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="F23" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F24" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18200</v>
+        <v>-17300</v>
       </c>
       <c r="E26" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="F26" s="3">
-        <v>24300</v>
+        <v>23200</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-724100</v>
+        <v>-690200</v>
       </c>
       <c r="E27" s="3">
-        <v>-457200</v>
+        <v>-435800</v>
       </c>
       <c r="F27" s="3">
-        <v>-38600</v>
+        <v>-36800</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-724100</v>
+        <v>-690200</v>
       </c>
       <c r="E33" s="3">
-        <v>-457200</v>
+        <v>-435800</v>
       </c>
       <c r="F33" s="3">
-        <v>-38600</v>
+        <v>-36800</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-724100</v>
+        <v>-690200</v>
       </c>
       <c r="E35" s="3">
-        <v>-457200</v>
+        <v>-435800</v>
       </c>
       <c r="F35" s="3">
-        <v>-38600</v>
+        <v>-36800</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>189400</v>
+        <v>180500</v>
       </c>
       <c r="E41" s="3">
-        <v>182900</v>
+        <v>174300</v>
       </c>
       <c r="F41" s="3">
-        <v>40000</v>
+        <v>38100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>207200</v>
+        <v>197500</v>
       </c>
       <c r="E42" s="3">
-        <v>24900</v>
+        <v>23700</v>
       </c>
       <c r="F42" s="3">
-        <v>46800</v>
+        <v>44600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14300</v>
+        <v>13600</v>
       </c>
       <c r="E43" s="3">
-        <v>11800</v>
+        <v>11300</v>
       </c>
       <c r="F43" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>62700</v>
+        <v>59800</v>
       </c>
       <c r="E45" s="3">
-        <v>35300</v>
+        <v>33700</v>
       </c>
       <c r="F45" s="3">
-        <v>37300</v>
+        <v>35500</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>474300</v>
+        <v>452100</v>
       </c>
       <c r="E46" s="3">
-        <v>254900</v>
+        <v>243000</v>
       </c>
       <c r="F46" s="3">
-        <v>131300</v>
+        <v>125100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>138000</v>
+        <v>131600</v>
       </c>
       <c r="E48" s="3">
-        <v>140700</v>
+        <v>134100</v>
       </c>
       <c r="F48" s="3">
-        <v>143300</v>
+        <v>136600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="E52" s="3">
-        <v>11200</v>
+        <v>10600</v>
       </c>
       <c r="F52" s="3">
-        <v>21200</v>
+        <v>20300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>642200</v>
+        <v>612200</v>
       </c>
       <c r="E54" s="3">
-        <v>406800</v>
+        <v>387800</v>
       </c>
       <c r="F54" s="3">
-        <v>295800</v>
+        <v>282000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>79900</v>
+        <v>76200</v>
       </c>
       <c r="E57" s="3">
-        <v>59200</v>
+        <v>56400</v>
       </c>
       <c r="F57" s="3">
-        <v>44300</v>
+        <v>42300</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15700</v>
+        <v>15000</v>
       </c>
       <c r="E58" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="F58" s="3">
-        <v>62000</v>
+        <v>59100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54600</v>
+        <v>52000</v>
       </c>
       <c r="E59" s="3">
-        <v>43900</v>
+        <v>41800</v>
       </c>
       <c r="F59" s="3">
-        <v>47900</v>
+        <v>45700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>150200</v>
+        <v>143100</v>
       </c>
       <c r="E60" s="3">
-        <v>124800</v>
+        <v>119000</v>
       </c>
       <c r="F60" s="3">
-        <v>154200</v>
+        <v>147000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12700</v>
+        <v>12100</v>
       </c>
       <c r="E61" s="3">
-        <v>29000</v>
+        <v>27600</v>
       </c>
       <c r="F61" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="E62" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F62" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>170300</v>
+        <v>162300</v>
       </c>
       <c r="E66" s="3">
-        <v>158700</v>
+        <v>151300</v>
       </c>
       <c r="F66" s="3">
-        <v>171700</v>
+        <v>163600</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>750300</v>
+        <v>715200</v>
       </c>
       <c r="F70" s="3">
-        <v>211100</v>
+        <v>201200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1254600</v>
+        <v>-1195900</v>
       </c>
       <c r="E72" s="3">
-        <v>-531700</v>
+        <v>-506900</v>
       </c>
       <c r="F72" s="3">
-        <v>-78900</v>
+        <v>-75200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>472000</v>
+        <v>449900</v>
       </c>
       <c r="E76" s="3">
-        <v>-502300</v>
+        <v>-478800</v>
       </c>
       <c r="F76" s="3">
-        <v>-87000</v>
+        <v>-82900</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-724100</v>
+        <v>-690200</v>
       </c>
       <c r="E81" s="3">
-        <v>-457200</v>
+        <v>-435800</v>
       </c>
       <c r="F81" s="3">
-        <v>-38600</v>
+        <v>-36800</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>58000</v>
+        <v>55200</v>
       </c>
       <c r="E83" s="3">
-        <v>50100</v>
+        <v>47800</v>
       </c>
       <c r="F83" s="3">
-        <v>28400</v>
+        <v>27000</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>33100</v>
+        <v>31600</v>
       </c>
       <c r="E89" s="3">
-        <v>78300</v>
+        <v>74600</v>
       </c>
       <c r="F89" s="3">
-        <v>64800</v>
+        <v>61800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-69000</v>
+        <v>-65800</v>
       </c>
       <c r="E91" s="3">
-        <v>-60900</v>
+        <v>-58000</v>
       </c>
       <c r="F91" s="3">
-        <v>-84700</v>
+        <v>-80800</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-250300</v>
+        <v>-238600</v>
       </c>
       <c r="E94" s="3">
-        <v>-38200</v>
+        <v>-36400</v>
       </c>
       <c r="F94" s="3">
-        <v>-126800</v>
+        <v>-120900</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>228300</v>
+        <v>217600</v>
       </c>
       <c r="E100" s="3">
-        <v>95600</v>
+        <v>91100</v>
       </c>
       <c r="F100" s="3">
-        <v>84600</v>
+        <v>80700</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="E101" s="3">
         <v>-900</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="E102" s="3">
-        <v>134800</v>
+        <v>128500</v>
       </c>
       <c r="F102" s="3">
-        <v>22100</v>
+        <v>21000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/EM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EM_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>499100</v>
+        <v>514900</v>
       </c>
       <c r="E8" s="3">
-        <v>391100</v>
+        <v>403500</v>
       </c>
       <c r="F8" s="3">
-        <v>281500</v>
+        <v>290400</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>77600</v>
+        <v>80000</v>
       </c>
       <c r="E9" s="3">
-        <v>60000</v>
+        <v>61900</v>
       </c>
       <c r="F9" s="3">
-        <v>40700</v>
+        <v>42000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>421500</v>
+        <v>434900</v>
       </c>
       <c r="E10" s="3">
-        <v>331100</v>
+        <v>341600</v>
       </c>
       <c r="F10" s="3">
-        <v>240800</v>
+        <v>248400</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="E12" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="F12" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>514300</v>
+        <v>530600</v>
       </c>
       <c r="E17" s="3">
-        <v>372700</v>
+        <v>384500</v>
       </c>
       <c r="F17" s="3">
-        <v>249200</v>
+        <v>257100</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15200</v>
+        <v>-15700</v>
       </c>
       <c r="E18" s="3">
-        <v>18400</v>
+        <v>18900</v>
       </c>
       <c r="F18" s="3">
-        <v>32300</v>
+        <v>33300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
       </c>
       <c r="F20" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42800</v>
+        <v>44700</v>
       </c>
       <c r="E21" s="3">
-        <v>66200</v>
+        <v>68700</v>
       </c>
       <c r="F21" s="3">
-        <v>60100</v>
+        <v>62300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E22" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F22" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17300</v>
+        <v>-17900</v>
       </c>
       <c r="E23" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="F23" s="3">
-        <v>29600</v>
+        <v>30500</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F24" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17300</v>
+        <v>-17900</v>
       </c>
       <c r="E26" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="F26" s="3">
-        <v>23200</v>
+        <v>23900</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-690200</v>
+        <v>-712100</v>
       </c>
       <c r="E27" s="3">
-        <v>-435800</v>
+        <v>-449700</v>
       </c>
       <c r="F27" s="3">
-        <v>-36800</v>
+        <v>-38000</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-690200</v>
+        <v>-712100</v>
       </c>
       <c r="E33" s="3">
-        <v>-435800</v>
+        <v>-449700</v>
       </c>
       <c r="F33" s="3">
-        <v>-36800</v>
+        <v>-38000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-690200</v>
+        <v>-712100</v>
       </c>
       <c r="E35" s="3">
-        <v>-435800</v>
+        <v>-449700</v>
       </c>
       <c r="F35" s="3">
-        <v>-36800</v>
+        <v>-38000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>180500</v>
+        <v>186300</v>
       </c>
       <c r="E41" s="3">
-        <v>174300</v>
+        <v>179900</v>
       </c>
       <c r="F41" s="3">
-        <v>38100</v>
+        <v>39300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>197500</v>
+        <v>203800</v>
       </c>
       <c r="E42" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="F42" s="3">
-        <v>44600</v>
+        <v>46000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13600</v>
+        <v>14100</v>
       </c>
       <c r="E43" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="F43" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59800</v>
+        <v>61700</v>
       </c>
       <c r="E45" s="3">
-        <v>33700</v>
+        <v>34700</v>
       </c>
       <c r="F45" s="3">
-        <v>35500</v>
+        <v>36700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>452100</v>
+        <v>466400</v>
       </c>
       <c r="E46" s="3">
-        <v>243000</v>
+        <v>250700</v>
       </c>
       <c r="F46" s="3">
-        <v>125100</v>
+        <v>129100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>131600</v>
+        <v>135800</v>
       </c>
       <c r="E48" s="3">
-        <v>134100</v>
+        <v>138400</v>
       </c>
       <c r="F48" s="3">
-        <v>136600</v>
+        <v>140900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="E52" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="F52" s="3">
-        <v>20300</v>
+        <v>20900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>612200</v>
+        <v>631600</v>
       </c>
       <c r="E54" s="3">
-        <v>387800</v>
+        <v>400100</v>
       </c>
       <c r="F54" s="3">
-        <v>282000</v>
+        <v>290900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>76200</v>
+        <v>78600</v>
       </c>
       <c r="E57" s="3">
-        <v>56400</v>
+        <v>58200</v>
       </c>
       <c r="F57" s="3">
-        <v>42300</v>
+        <v>43600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="E58" s="3">
-        <v>20800</v>
+        <v>21400</v>
       </c>
       <c r="F58" s="3">
-        <v>59100</v>
+        <v>61000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52000</v>
+        <v>53700</v>
       </c>
       <c r="E59" s="3">
-        <v>41800</v>
+        <v>43200</v>
       </c>
       <c r="F59" s="3">
-        <v>45700</v>
+        <v>47100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>143100</v>
+        <v>147700</v>
       </c>
       <c r="E60" s="3">
-        <v>119000</v>
+        <v>122800</v>
       </c>
       <c r="F60" s="3">
-        <v>147000</v>
+        <v>151700</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="E61" s="3">
-        <v>27600</v>
+        <v>28500</v>
       </c>
       <c r="F61" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="E62" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F62" s="3">
         <v>2300</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>162300</v>
+        <v>167500</v>
       </c>
       <c r="E66" s="3">
-        <v>151300</v>
+        <v>156100</v>
       </c>
       <c r="F66" s="3">
-        <v>163600</v>
+        <v>168800</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>715200</v>
+        <v>737900</v>
       </c>
       <c r="F70" s="3">
-        <v>201200</v>
+        <v>207600</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1195900</v>
+        <v>-1233900</v>
       </c>
       <c r="E72" s="3">
-        <v>-506900</v>
+        <v>-522900</v>
       </c>
       <c r="F72" s="3">
-        <v>-75200</v>
+        <v>-77600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>449900</v>
+        <v>464200</v>
       </c>
       <c r="E76" s="3">
-        <v>-478800</v>
+        <v>-493900</v>
       </c>
       <c r="F76" s="3">
-        <v>-82900</v>
+        <v>-85500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-690200</v>
+        <v>-712100</v>
       </c>
       <c r="E81" s="3">
-        <v>-435800</v>
+        <v>-449700</v>
       </c>
       <c r="F81" s="3">
-        <v>-36800</v>
+        <v>-38000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>55200</v>
+        <v>57000</v>
       </c>
       <c r="E83" s="3">
-        <v>47800</v>
+        <v>49300</v>
       </c>
       <c r="F83" s="3">
-        <v>27000</v>
+        <v>27900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31600</v>
+        <v>32600</v>
       </c>
       <c r="E89" s="3">
-        <v>74600</v>
+        <v>77000</v>
       </c>
       <c r="F89" s="3">
-        <v>61800</v>
+        <v>63800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65800</v>
+        <v>-67800</v>
       </c>
       <c r="E91" s="3">
-        <v>-58000</v>
+        <v>-59900</v>
       </c>
       <c r="F91" s="3">
-        <v>-80800</v>
+        <v>-83300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-238600</v>
+        <v>-246200</v>
       </c>
       <c r="E94" s="3">
-        <v>-36400</v>
+        <v>-37600</v>
       </c>
       <c r="F94" s="3">
-        <v>-120900</v>
+        <v>-124700</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>217600</v>
+        <v>224500</v>
       </c>
       <c r="E100" s="3">
-        <v>91100</v>
+        <v>94000</v>
       </c>
       <c r="F100" s="3">
-        <v>80700</v>
+        <v>83300</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="E101" s="3">
         <v>-900</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E102" s="3">
-        <v>128500</v>
+        <v>132600</v>
       </c>
       <c r="F102" s="3">
-        <v>21000</v>
+        <v>21700</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/EM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EM_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>514900</v>
+        <v>403400</v>
       </c>
       <c r="E8" s="3">
-        <v>403500</v>
+        <v>509700</v>
       </c>
       <c r="F8" s="3">
-        <v>290400</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>399400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>287500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>80000</v>
+        <v>79200</v>
       </c>
       <c r="E9" s="3">
-        <v>61900</v>
+        <v>79200</v>
       </c>
       <c r="F9" s="3">
-        <v>42000</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>61200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>41600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>434900</v>
+        <v>324300</v>
       </c>
       <c r="E10" s="3">
-        <v>341600</v>
+        <v>430500</v>
       </c>
       <c r="F10" s="3">
-        <v>248400</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>338100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>245900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="E12" s="3">
-        <v>10200</v>
+        <v>13300</v>
       </c>
       <c r="F12" s="3">
-        <v>9400</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>10100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>530600</v>
+        <v>491800</v>
       </c>
       <c r="E17" s="3">
-        <v>384500</v>
+        <v>525200</v>
       </c>
       <c r="F17" s="3">
-        <v>257100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>380600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>254500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15700</v>
+        <v>-88300</v>
       </c>
       <c r="E18" s="3">
-        <v>18900</v>
+        <v>-15500</v>
       </c>
       <c r="F18" s="3">
-        <v>33300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>18700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>33000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,22 +1050,23 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>1000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>44700</v>
+        <v>-16200</v>
       </c>
       <c r="E21" s="3">
-        <v>68700</v>
+        <v>44400</v>
       </c>
       <c r="F21" s="3">
-        <v>62300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>68200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>61800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,23 +1113,26 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5500</v>
+        <v>4400</v>
       </c>
       <c r="E22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F22" s="3">
         <v>5800</v>
       </c>
-      <c r="F22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>3800</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17900</v>
+        <v>-84800</v>
       </c>
       <c r="E23" s="3">
-        <v>13500</v>
+        <v>-17700</v>
       </c>
       <c r="F23" s="3">
-        <v>30500</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>13400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>30200</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,23 +1179,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>16300</v>
       </c>
       <c r="E24" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>2600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6500</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17900</v>
+        <v>-101100</v>
       </c>
       <c r="E26" s="3">
-        <v>10800</v>
+        <v>-17700</v>
       </c>
       <c r="F26" s="3">
-        <v>23900</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>10700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>23700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-712100</v>
+        <v>-101100</v>
       </c>
       <c r="E27" s="3">
-        <v>-449700</v>
+        <v>-704800</v>
       </c>
       <c r="F27" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-445100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-37600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,23 +1443,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>-1000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-712100</v>
+        <v>-101100</v>
       </c>
       <c r="E33" s="3">
-        <v>-449700</v>
+        <v>-704800</v>
       </c>
       <c r="F33" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-445100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-37600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-712100</v>
+        <v>-101100</v>
       </c>
       <c r="E35" s="3">
-        <v>-449700</v>
+        <v>-704800</v>
       </c>
       <c r="F35" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-445100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-37600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>186300</v>
+        <v>134900</v>
       </c>
       <c r="E41" s="3">
-        <v>179900</v>
+        <v>184400</v>
       </c>
       <c r="F41" s="3">
-        <v>39300</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>178000</v>
+      </c>
+      <c r="G41" s="3">
+        <v>38900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>203800</v>
+        <v>297300</v>
       </c>
       <c r="E42" s="3">
-        <v>24500</v>
+        <v>201700</v>
       </c>
       <c r="F42" s="3">
-        <v>46000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>24200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>45600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14100</v>
+        <v>3800</v>
       </c>
       <c r="E43" s="3">
-        <v>11600</v>
+        <v>13900</v>
       </c>
       <c r="F43" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>11500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>7000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,18 +1742,21 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,26 +1772,29 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>61700</v>
+        <v>33100</v>
       </c>
       <c r="E45" s="3">
-        <v>34700</v>
+        <v>61100</v>
       </c>
       <c r="F45" s="3">
-        <v>36700</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>34400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>36300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>466400</v>
+        <v>469200</v>
       </c>
       <c r="E46" s="3">
-        <v>250700</v>
+        <v>461700</v>
       </c>
       <c r="F46" s="3">
-        <v>129100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>248200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>127800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,9 +1841,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>135800</v>
+        <v>127800</v>
       </c>
       <c r="E48" s="3">
-        <v>138400</v>
+        <v>134400</v>
       </c>
       <c r="F48" s="3">
-        <v>140900</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>137000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>139500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,9 +1907,12 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,23 +2006,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29400</v>
+        <v>12500</v>
       </c>
       <c r="E52" s="3">
-        <v>11000</v>
+        <v>29100</v>
       </c>
       <c r="F52" s="3">
-        <v>20900</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>10900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>20700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>631600</v>
+        <v>609500</v>
       </c>
       <c r="E54" s="3">
-        <v>400100</v>
+        <v>625200</v>
       </c>
       <c r="F54" s="3">
-        <v>290900</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>396000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>287900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>78600</v>
+        <v>114100</v>
       </c>
       <c r="E57" s="3">
-        <v>58200</v>
+        <v>77800</v>
       </c>
       <c r="F57" s="3">
-        <v>43600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>57600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>43200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15400</v>
+        <v>10800</v>
       </c>
       <c r="E58" s="3">
-        <v>21400</v>
+        <v>15300</v>
       </c>
       <c r="F58" s="3">
-        <v>61000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>21200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>60300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53700</v>
+        <v>77300</v>
       </c>
       <c r="E59" s="3">
-        <v>43200</v>
+        <v>53100</v>
       </c>
       <c r="F59" s="3">
-        <v>47100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>42700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>46700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>147700</v>
+        <v>202300</v>
       </c>
       <c r="E60" s="3">
-        <v>122800</v>
+        <v>146200</v>
       </c>
       <c r="F60" s="3">
-        <v>151700</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>121500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>150100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,23 +2267,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12400</v>
+        <v>4700</v>
       </c>
       <c r="E61" s="3">
-        <v>28500</v>
+        <v>12300</v>
       </c>
       <c r="F61" s="3">
-        <v>14800</v>
+        <v>28200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>14600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,24 +2300,27 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7300</v>
+        <v>27000</v>
       </c>
       <c r="E62" s="3">
-        <v>4900</v>
+        <v>7200</v>
       </c>
       <c r="F62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>167500</v>
+        <v>234000</v>
       </c>
       <c r="E66" s="3">
-        <v>156100</v>
+        <v>165700</v>
       </c>
       <c r="F66" s="3">
-        <v>168800</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>154500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>167100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>737900</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>207600</v>
+        <v>730300</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>205500</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1233900</v>
+        <v>-1322400</v>
       </c>
       <c r="E72" s="3">
-        <v>-522900</v>
+        <v>-1221300</v>
       </c>
       <c r="F72" s="3">
-        <v>-77600</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-517600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-76800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>464200</v>
+        <v>375500</v>
       </c>
       <c r="E76" s="3">
-        <v>-493900</v>
+        <v>459400</v>
       </c>
       <c r="F76" s="3">
-        <v>-85500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-488800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-84700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-712100</v>
+        <v>-101100</v>
       </c>
       <c r="E81" s="3">
-        <v>-449700</v>
+        <v>-704800</v>
       </c>
       <c r="F81" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-445100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-37600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,22 +2899,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>57000</v>
+        <v>63800</v>
       </c>
       <c r="E83" s="3">
-        <v>49300</v>
+        <v>56400</v>
       </c>
       <c r="F83" s="3">
-        <v>27900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>48800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>27600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>32600</v>
+        <v>100700</v>
       </c>
       <c r="E89" s="3">
-        <v>77000</v>
+        <v>32200</v>
       </c>
       <c r="F89" s="3">
-        <v>63800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>76200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>63100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,22 +3145,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-67800</v>
+        <v>-63000</v>
       </c>
       <c r="E91" s="3">
-        <v>-59900</v>
+        <v>-67200</v>
       </c>
       <c r="F91" s="3">
-        <v>-83300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-59300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-82500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-246200</v>
+        <v>-145600</v>
       </c>
       <c r="E94" s="3">
-        <v>-37600</v>
+        <v>-243700</v>
       </c>
       <c r="F94" s="3">
-        <v>-124700</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-37200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-123400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>224500</v>
+        <v>-11200</v>
       </c>
       <c r="E100" s="3">
-        <v>94000</v>
+        <v>222200</v>
       </c>
       <c r="F100" s="3">
-        <v>83300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>93000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>82400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,24 +3454,27 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4800</v>
+        <v>-50100</v>
       </c>
       <c r="E102" s="3">
-        <v>132600</v>
+        <v>4700</v>
       </c>
       <c r="F102" s="3">
-        <v>21700</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>131200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>21500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EM_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>403400</v>
+        <v>391000</v>
       </c>
       <c r="E8" s="3">
-        <v>509700</v>
+        <v>494000</v>
       </c>
       <c r="F8" s="3">
-        <v>399400</v>
+        <v>387100</v>
       </c>
       <c r="G8" s="3">
-        <v>287500</v>
+        <v>278600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>79200</v>
+        <v>76700</v>
       </c>
       <c r="E9" s="3">
-        <v>79200</v>
+        <v>76800</v>
       </c>
       <c r="F9" s="3">
-        <v>61200</v>
+        <v>59400</v>
       </c>
       <c r="G9" s="3">
-        <v>41600</v>
+        <v>40300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>324300</v>
+        <v>314300</v>
       </c>
       <c r="E10" s="3">
-        <v>430500</v>
+        <v>417200</v>
       </c>
       <c r="F10" s="3">
-        <v>338100</v>
+        <v>327700</v>
       </c>
       <c r="G10" s="3">
-        <v>245900</v>
+        <v>238300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E12" s="3">
         <v>12900</v>
       </c>
-      <c r="E12" s="3">
-        <v>13300</v>
-      </c>
       <c r="F12" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="G12" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>491800</v>
+        <v>476600</v>
       </c>
       <c r="E17" s="3">
-        <v>525200</v>
+        <v>509000</v>
       </c>
       <c r="F17" s="3">
-        <v>380600</v>
+        <v>368900</v>
       </c>
       <c r="G17" s="3">
-        <v>254500</v>
+        <v>246700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-88300</v>
+        <v>-85600</v>
       </c>
       <c r="E18" s="3">
-        <v>-15500</v>
+        <v>-15000</v>
       </c>
       <c r="F18" s="3">
-        <v>18700</v>
+        <v>18200</v>
       </c>
       <c r="G18" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,10 +1057,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="E20" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F20" s="3">
         <v>400</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-16200</v>
+        <v>-16000</v>
       </c>
       <c r="E21" s="3">
-        <v>44400</v>
+        <v>42800</v>
       </c>
       <c r="F21" s="3">
-        <v>68200</v>
+        <v>65900</v>
       </c>
       <c r="G21" s="3">
-        <v>61800</v>
+        <v>59700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="F22" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="G22" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-84800</v>
+        <v>-82200</v>
       </c>
       <c r="E23" s="3">
-        <v>-17700</v>
+        <v>-17200</v>
       </c>
       <c r="F23" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="G23" s="3">
-        <v>30200</v>
+        <v>29300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>2600</v>
       </c>
       <c r="G24" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-101100</v>
+        <v>-98000</v>
       </c>
       <c r="E26" s="3">
-        <v>-17700</v>
+        <v>-17200</v>
       </c>
       <c r="F26" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="G26" s="3">
-        <v>23700</v>
+        <v>23000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-101100</v>
+        <v>-98000</v>
       </c>
       <c r="E27" s="3">
-        <v>-704800</v>
+        <v>-683200</v>
       </c>
       <c r="F27" s="3">
-        <v>-445100</v>
+        <v>-431400</v>
       </c>
       <c r="G27" s="3">
-        <v>-37600</v>
+        <v>-36400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7900</v>
+        <v>-7700</v>
       </c>
       <c r="E32" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="F32" s="3">
         <v>-400</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-101100</v>
+        <v>-98000</v>
       </c>
       <c r="E33" s="3">
-        <v>-704800</v>
+        <v>-683200</v>
       </c>
       <c r="F33" s="3">
-        <v>-445100</v>
+        <v>-431400</v>
       </c>
       <c r="G33" s="3">
-        <v>-37600</v>
+        <v>-36400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-101100</v>
+        <v>-98000</v>
       </c>
       <c r="E35" s="3">
-        <v>-704800</v>
+        <v>-683200</v>
       </c>
       <c r="F35" s="3">
-        <v>-445100</v>
+        <v>-431400</v>
       </c>
       <c r="G35" s="3">
-        <v>-37600</v>
+        <v>-36400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>134900</v>
+        <v>130700</v>
       </c>
       <c r="E41" s="3">
-        <v>184400</v>
+        <v>178700</v>
       </c>
       <c r="F41" s="3">
-        <v>178000</v>
+        <v>172600</v>
       </c>
       <c r="G41" s="3">
-        <v>38900</v>
+        <v>37700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>297300</v>
+        <v>288100</v>
       </c>
       <c r="E42" s="3">
-        <v>201700</v>
+        <v>195500</v>
       </c>
       <c r="F42" s="3">
-        <v>24200</v>
+        <v>23500</v>
       </c>
       <c r="G42" s="3">
-        <v>45600</v>
+        <v>44200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E43" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="F43" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="G43" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33100</v>
+        <v>32100</v>
       </c>
       <c r="E45" s="3">
-        <v>61100</v>
+        <v>59200</v>
       </c>
       <c r="F45" s="3">
-        <v>34400</v>
+        <v>33300</v>
       </c>
       <c r="G45" s="3">
-        <v>36300</v>
+        <v>35200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>469200</v>
+        <v>454800</v>
       </c>
       <c r="E46" s="3">
-        <v>461700</v>
+        <v>447500</v>
       </c>
       <c r="F46" s="3">
-        <v>248200</v>
+        <v>240500</v>
       </c>
       <c r="G46" s="3">
-        <v>127800</v>
+        <v>123800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>127800</v>
+        <v>123900</v>
       </c>
       <c r="E48" s="3">
-        <v>134400</v>
+        <v>130200</v>
       </c>
       <c r="F48" s="3">
-        <v>137000</v>
+        <v>132700</v>
       </c>
       <c r="G48" s="3">
-        <v>139500</v>
+        <v>135200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="E52" s="3">
-        <v>29100</v>
+        <v>28200</v>
       </c>
       <c r="F52" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="G52" s="3">
-        <v>20700</v>
+        <v>20000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>609500</v>
+        <v>590800</v>
       </c>
       <c r="E54" s="3">
-        <v>625200</v>
+        <v>606000</v>
       </c>
       <c r="F54" s="3">
-        <v>396000</v>
+        <v>383800</v>
       </c>
       <c r="G54" s="3">
-        <v>287900</v>
+        <v>279100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>114100</v>
+        <v>110600</v>
       </c>
       <c r="E57" s="3">
-        <v>77800</v>
+        <v>75400</v>
       </c>
       <c r="F57" s="3">
-        <v>57600</v>
+        <v>55800</v>
       </c>
       <c r="G57" s="3">
-        <v>43200</v>
+        <v>41800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="E58" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="F58" s="3">
-        <v>21200</v>
+        <v>20600</v>
       </c>
       <c r="G58" s="3">
-        <v>60300</v>
+        <v>58500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>77300</v>
+        <v>75000</v>
       </c>
       <c r="E59" s="3">
-        <v>53100</v>
+        <v>51500</v>
       </c>
       <c r="F59" s="3">
-        <v>42700</v>
+        <v>41400</v>
       </c>
       <c r="G59" s="3">
-        <v>46700</v>
+        <v>45200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>202300</v>
+        <v>196000</v>
       </c>
       <c r="E60" s="3">
-        <v>146200</v>
+        <v>141700</v>
       </c>
       <c r="F60" s="3">
-        <v>121500</v>
+        <v>117800</v>
       </c>
       <c r="G60" s="3">
-        <v>150100</v>
+        <v>145500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E61" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="F61" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="G61" s="3">
-        <v>14600</v>
+        <v>14200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="E62" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="F62" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G62" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>234000</v>
+        <v>226800</v>
       </c>
       <c r="E66" s="3">
-        <v>165700</v>
+        <v>160600</v>
       </c>
       <c r="F66" s="3">
-        <v>154500</v>
+        <v>149800</v>
       </c>
       <c r="G66" s="3">
-        <v>167100</v>
+        <v>162000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>730300</v>
+        <v>707900</v>
       </c>
       <c r="G70" s="3">
-        <v>205500</v>
+        <v>199200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1322400</v>
+        <v>-1281700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1221300</v>
+        <v>-1183700</v>
       </c>
       <c r="F72" s="3">
-        <v>-517600</v>
+        <v>-501700</v>
       </c>
       <c r="G72" s="3">
-        <v>-76800</v>
+        <v>-74400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>375500</v>
+        <v>363900</v>
       </c>
       <c r="E76" s="3">
-        <v>459400</v>
+        <v>445300</v>
       </c>
       <c r="F76" s="3">
-        <v>-488800</v>
+        <v>-473900</v>
       </c>
       <c r="G76" s="3">
-        <v>-84700</v>
+        <v>-82100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-101100</v>
+        <v>-98000</v>
       </c>
       <c r="E81" s="3">
-        <v>-704800</v>
+        <v>-683200</v>
       </c>
       <c r="F81" s="3">
-        <v>-445100</v>
+        <v>-431400</v>
       </c>
       <c r="G81" s="3">
-        <v>-37600</v>
+        <v>-36400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>63800</v>
+        <v>61900</v>
       </c>
       <c r="E83" s="3">
-        <v>56400</v>
+        <v>54700</v>
       </c>
       <c r="F83" s="3">
-        <v>48800</v>
+        <v>47300</v>
       </c>
       <c r="G83" s="3">
-        <v>27600</v>
+        <v>26800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100700</v>
+        <v>97600</v>
       </c>
       <c r="E89" s="3">
-        <v>32200</v>
+        <v>31200</v>
       </c>
       <c r="F89" s="3">
-        <v>76200</v>
+        <v>73900</v>
       </c>
       <c r="G89" s="3">
-        <v>63100</v>
+        <v>61200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-63000</v>
+        <v>-61000</v>
       </c>
       <c r="E91" s="3">
-        <v>-67200</v>
+        <v>-65100</v>
       </c>
       <c r="F91" s="3">
-        <v>-59300</v>
+        <v>-57400</v>
       </c>
       <c r="G91" s="3">
-        <v>-82500</v>
+        <v>-79900</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-145600</v>
+        <v>-141100</v>
       </c>
       <c r="E94" s="3">
-        <v>-243700</v>
+        <v>-236200</v>
       </c>
       <c r="F94" s="3">
-        <v>-37200</v>
+        <v>-36000</v>
       </c>
       <c r="G94" s="3">
-        <v>-123400</v>
+        <v>-119600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11200</v>
+        <v>-10800</v>
       </c>
       <c r="E100" s="3">
-        <v>222200</v>
+        <v>215400</v>
       </c>
       <c r="F100" s="3">
-        <v>93000</v>
+        <v>90200</v>
       </c>
       <c r="G100" s="3">
-        <v>82400</v>
+        <v>79900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E101" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="F101" s="3">
         <v>-900</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-50100</v>
+        <v>-48500</v>
       </c>
       <c r="E102" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F102" s="3">
-        <v>131200</v>
+        <v>127200</v>
       </c>
       <c r="G102" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/EM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EM_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>391000</v>
+        <v>391900</v>
       </c>
       <c r="E8" s="3">
-        <v>494000</v>
+        <v>495100</v>
       </c>
       <c r="F8" s="3">
-        <v>387100</v>
+        <v>387900</v>
       </c>
       <c r="G8" s="3">
-        <v>278600</v>
+        <v>279200</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>76700</v>
+        <v>76900</v>
       </c>
       <c r="E9" s="3">
-        <v>76800</v>
+        <v>76900</v>
       </c>
       <c r="F9" s="3">
-        <v>59400</v>
+        <v>59500</v>
       </c>
       <c r="G9" s="3">
-        <v>40300</v>
+        <v>40400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>314300</v>
+        <v>315000</v>
       </c>
       <c r="E10" s="3">
-        <v>417200</v>
+        <v>418100</v>
       </c>
       <c r="F10" s="3">
-        <v>327700</v>
+        <v>328400</v>
       </c>
       <c r="G10" s="3">
-        <v>238300</v>
+        <v>238900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -835,7 +835,7 @@
         <v>12500</v>
       </c>
       <c r="E12" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="F12" s="3">
         <v>9800</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>476600</v>
+        <v>477700</v>
       </c>
       <c r="E17" s="3">
-        <v>509000</v>
+        <v>510100</v>
       </c>
       <c r="F17" s="3">
-        <v>368900</v>
+        <v>369700</v>
       </c>
       <c r="G17" s="3">
-        <v>246700</v>
+        <v>247200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-85600</v>
+        <v>-85800</v>
       </c>
       <c r="E18" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="F18" s="3">
         <v>18200</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-16000</v>
+        <v>-19900</v>
       </c>
       <c r="E21" s="3">
         <v>42800</v>
       </c>
       <c r="F21" s="3">
-        <v>65900</v>
+        <v>66000</v>
       </c>
       <c r="G21" s="3">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1126,7 +1126,7 @@
         <v>4300</v>
       </c>
       <c r="E22" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F22" s="3">
         <v>5600</v>
@@ -1156,7 +1156,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-82200</v>
+        <v>-82400</v>
       </c>
       <c r="E23" s="3">
         <v>-17200</v>
@@ -1255,7 +1255,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-98000</v>
+        <v>-98200</v>
       </c>
       <c r="E26" s="3">
         <v>-17200</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-98000</v>
+        <v>-98200</v>
       </c>
       <c r="E27" s="3">
-        <v>-683200</v>
+        <v>-684700</v>
       </c>
       <c r="F27" s="3">
-        <v>-431400</v>
+        <v>-432300</v>
       </c>
       <c r="G27" s="3">
-        <v>-36400</v>
+        <v>-36500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-98000</v>
+        <v>-98200</v>
       </c>
       <c r="E33" s="3">
-        <v>-683200</v>
+        <v>-684700</v>
       </c>
       <c r="F33" s="3">
-        <v>-431400</v>
+        <v>-432300</v>
       </c>
       <c r="G33" s="3">
-        <v>-36400</v>
+        <v>-36500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-98000</v>
+        <v>-98200</v>
       </c>
       <c r="E35" s="3">
-        <v>-683200</v>
+        <v>-684700</v>
       </c>
       <c r="F35" s="3">
-        <v>-431400</v>
+        <v>-432300</v>
       </c>
       <c r="G35" s="3">
-        <v>-36400</v>
+        <v>-36500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>130700</v>
+        <v>131000</v>
       </c>
       <c r="E41" s="3">
-        <v>178700</v>
+        <v>179100</v>
       </c>
       <c r="F41" s="3">
-        <v>172600</v>
+        <v>172900</v>
       </c>
       <c r="G41" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,10 +1686,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>288100</v>
+        <v>288800</v>
       </c>
       <c r="E42" s="3">
-        <v>195500</v>
+        <v>195900</v>
       </c>
       <c r="F42" s="3">
         <v>23500</v>
@@ -1725,7 +1725,7 @@
         <v>13500</v>
       </c>
       <c r="F43" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="G43" s="3">
         <v>6800</v>
@@ -1788,10 +1788,10 @@
         <v>32100</v>
       </c>
       <c r="E45" s="3">
-        <v>59200</v>
+        <v>59300</v>
       </c>
       <c r="F45" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="G45" s="3">
         <v>35200</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>454800</v>
+        <v>455800</v>
       </c>
       <c r="E46" s="3">
-        <v>447500</v>
+        <v>448400</v>
       </c>
       <c r="F46" s="3">
-        <v>240500</v>
+        <v>241100</v>
       </c>
       <c r="G46" s="3">
-        <v>123800</v>
+        <v>124100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>123900</v>
+        <v>124100</v>
       </c>
       <c r="E48" s="3">
-        <v>130200</v>
+        <v>130500</v>
       </c>
       <c r="F48" s="3">
-        <v>132700</v>
+        <v>133000</v>
       </c>
       <c r="G48" s="3">
-        <v>135200</v>
+        <v>135500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2019,13 +2019,13 @@
         <v>12100</v>
       </c>
       <c r="E52" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="F52" s="3">
         <v>10500</v>
       </c>
       <c r="G52" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>590800</v>
+        <v>592000</v>
       </c>
       <c r="E54" s="3">
-        <v>606000</v>
+        <v>607300</v>
       </c>
       <c r="F54" s="3">
-        <v>383800</v>
+        <v>384600</v>
       </c>
       <c r="G54" s="3">
-        <v>279100</v>
+        <v>279700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>110600</v>
+        <v>110800</v>
       </c>
       <c r="E57" s="3">
-        <v>75400</v>
+        <v>75600</v>
       </c>
       <c r="F57" s="3">
-        <v>55800</v>
+        <v>55900</v>
       </c>
       <c r="G57" s="3">
-        <v>41800</v>
+        <v>41900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2187,7 +2187,7 @@
         <v>20600</v>
       </c>
       <c r="G58" s="3">
-        <v>58500</v>
+        <v>58600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>75000</v>
+        <v>75100</v>
       </c>
       <c r="E59" s="3">
-        <v>51500</v>
+        <v>51600</v>
       </c>
       <c r="F59" s="3">
-        <v>41400</v>
+        <v>41500</v>
       </c>
       <c r="G59" s="3">
-        <v>45200</v>
+        <v>45300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>196000</v>
+        <v>196500</v>
       </c>
       <c r="E60" s="3">
-        <v>141700</v>
+        <v>142000</v>
       </c>
       <c r="F60" s="3">
-        <v>117800</v>
+        <v>118000</v>
       </c>
       <c r="G60" s="3">
-        <v>145500</v>
+        <v>145800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2280,10 +2280,10 @@
         <v>4600</v>
       </c>
       <c r="E61" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="F61" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="G61" s="3">
         <v>14200</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="E62" s="3">
         <v>7000</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>226800</v>
+        <v>227300</v>
       </c>
       <c r="E66" s="3">
-        <v>160600</v>
+        <v>161000</v>
       </c>
       <c r="F66" s="3">
-        <v>149800</v>
+        <v>150100</v>
       </c>
       <c r="G66" s="3">
-        <v>162000</v>
+        <v>162300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>707900</v>
+        <v>709400</v>
       </c>
       <c r="G70" s="3">
-        <v>199200</v>
+        <v>199600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1281700</v>
+        <v>-1284500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1183700</v>
+        <v>-1186300</v>
       </c>
       <c r="F72" s="3">
-        <v>-501700</v>
+        <v>-502800</v>
       </c>
       <c r="G72" s="3">
-        <v>-74400</v>
+        <v>-74600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>363900</v>
+        <v>364700</v>
       </c>
       <c r="E76" s="3">
-        <v>445300</v>
+        <v>446300</v>
       </c>
       <c r="F76" s="3">
-        <v>-473900</v>
+        <v>-474900</v>
       </c>
       <c r="G76" s="3">
-        <v>-82100</v>
+        <v>-82200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-98000</v>
+        <v>-98200</v>
       </c>
       <c r="E81" s="3">
-        <v>-683200</v>
+        <v>-684700</v>
       </c>
       <c r="F81" s="3">
-        <v>-431400</v>
+        <v>-432300</v>
       </c>
       <c r="G81" s="3">
-        <v>-36400</v>
+        <v>-36500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>61900</v>
+        <v>58200</v>
       </c>
       <c r="E83" s="3">
-        <v>54700</v>
+        <v>54800</v>
       </c>
       <c r="F83" s="3">
-        <v>47300</v>
+        <v>47400</v>
       </c>
       <c r="G83" s="3">
         <v>26800</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>97600</v>
+        <v>97800</v>
       </c>
       <c r="E89" s="3">
-        <v>31200</v>
+        <v>31300</v>
       </c>
       <c r="F89" s="3">
-        <v>73900</v>
+        <v>74000</v>
       </c>
       <c r="G89" s="3">
-        <v>61200</v>
+        <v>61300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-61000</v>
+        <v>-61200</v>
       </c>
       <c r="E91" s="3">
-        <v>-65100</v>
+        <v>-65200</v>
       </c>
       <c r="F91" s="3">
-        <v>-57400</v>
+        <v>-57600</v>
       </c>
       <c r="G91" s="3">
-        <v>-79900</v>
+        <v>-80100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-141100</v>
+        <v>-141400</v>
       </c>
       <c r="E94" s="3">
-        <v>-236200</v>
+        <v>-236700</v>
       </c>
       <c r="F94" s="3">
-        <v>-36000</v>
+        <v>-36100</v>
       </c>
       <c r="G94" s="3">
-        <v>-119600</v>
+        <v>-119900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3434,13 +3434,13 @@
         <v>-10800</v>
       </c>
       <c r="E100" s="3">
-        <v>215400</v>
+        <v>215900</v>
       </c>
       <c r="F100" s="3">
-        <v>90200</v>
+        <v>90400</v>
       </c>
       <c r="G100" s="3">
-        <v>79900</v>
+        <v>80000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-48500</v>
+        <v>-48600</v>
       </c>
       <c r="E102" s="3">
         <v>4600</v>
       </c>
       <c r="F102" s="3">
-        <v>127200</v>
+        <v>127400</v>
       </c>
       <c r="G102" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
